--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_8_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_8_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.6700000000001</v>
+        <v>22.59000000000009</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.873238138967338e-06</v>
+        <v>0.0001016077164499585</v>
       </c>
       <c r="I2" t="n">
-        <v>2.873238138967338e-06</v>
+        <v>0.0001016077164499585</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>49.71972695669641</v>
+        <v>46.14901658985401</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[28.351226494126905, 71.0882274192659]</t>
+          <t>[24.473175935913744, 67.82485724379427]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.593327037847537e-05</v>
+        <v>9.406996846106352e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>2.593327037847537e-05</v>
+        <v>9.406996846106352e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.918289808498272</v>
+        <v>1.566079220708426</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.4528686746331179, 2.383710942363427]</t>
+          <t>[1.0000264903318863, 2.1321319510849657]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.26070265338285e-10</v>
+        <v>1.340654562920207e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>1.26070265338285e-10</v>
+        <v>1.340654562920207e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>63.69146187384978</v>
+        <v>69.70494689466349</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[51.78271158238336, 75.60021216531621]</t>
+          <t>[56.27953784620315, 83.13035594312385]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.796163466380676e-14</v>
+        <v>1.256772463875677e-13</v>
       </c>
       <c r="W2" t="n">
-        <v>4.796163466380676e-14</v>
+        <v>1.256772463875677e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>15.7487287287288</v>
+        <v>16.95945945945953</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.06946946946953</v>
+        <v>14.92432432432438</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.42798798798807</v>
+        <v>18.99459459459467</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.6700000000001</v>
+        <v>22.59000000000009</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>7.224805620953401e-05</v>
+        <v>9.147813261844995e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>7.224805620953401e-05</v>
+        <v>9.147813261844995e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>42.06080600496619</v>
+        <v>40.4394083358601</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[22.362125281308472, 61.759486728623905]</t>
+          <t>[16.933511207301052, 63.94530546441915]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>9.042011395732352e-05</v>
+        <v>0.001176155039902538</v>
       </c>
       <c r="O3" t="n">
-        <v>9.042011395732352e-05</v>
+        <v>0.001176155039902538</v>
       </c>
       <c r="P3" t="n">
-        <v>1.691868716347656</v>
+        <v>2.232763547596349</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.1383949355350396, 2.245342497160273]</t>
+          <t>[1.6918687163476553, 2.7736583788450426]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.826572366692147e-07</v>
+        <v>1.208766420290885e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>1.826572366692147e-07</v>
+        <v>1.208766420290885e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>58.20147959681594</v>
+        <v>51.6815892418312</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.18235495319564, 70.22060424043624]</t>
+          <t>[39.673312789164186, 63.68986569449821]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.131317262093035e-12</v>
+        <v>3.747357979477783e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>1.131317262093035e-12</v>
+        <v>3.747357979477783e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>16.56566566566574</v>
+        <v>14.56252252252258</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.56870870870877</v>
+        <v>12.61783783783789</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.56262262262271</v>
+        <v>16.50720720720728</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.6700000000001</v>
+        <v>22.59000000000009</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.95236072903149e-06</v>
+        <v>0.004636842343929692</v>
       </c>
       <c r="I4" t="n">
-        <v>3.95236072903149e-06</v>
+        <v>0.004636842343929692</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>55.09555154563223</v>
+        <v>35.86390370732018</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[28.338286699432924, 81.85281639183152]</t>
+          <t>[7.833847777542395, 63.89395963709796]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0001470857985028662</v>
+        <v>0.01331538853059477</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0001470857985028662</v>
+        <v>0.01331538853059477</v>
       </c>
       <c r="P4" t="n">
-        <v>2.358553043235581</v>
+        <v>2.39628989192735</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.9182898084982725, 2.7988162779728896]</t>
+          <t>[1.7170266154755032, 3.075553168379197]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.551914400963142e-14</v>
+        <v>7.113957423143802e-09</v>
       </c>
       <c r="S4" t="n">
-        <v>4.551914400963142e-14</v>
+        <v>7.113957423143802e-09</v>
       </c>
       <c r="T4" t="n">
-        <v>59.72279627455848</v>
+        <v>57.45488282340347</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[46.03177954882095, 73.413813000296]</t>
+          <t>[42.65626385658999, 72.25350179021694]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.548228295040644e-11</v>
+        <v>6.316602796374582e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>2.548228295040644e-11</v>
+        <v>6.316602796374582e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>14.1602402402403</v>
+        <v>13.97459459459465</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.57175175175181</v>
+        <v>11.53243243243248</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.7487287287288</v>
+        <v>16.41675675675682</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.6700000000001</v>
+        <v>22.59000000000009</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01389986727940429</v>
+        <v>8.184882549500117e-08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01389986727940429</v>
+        <v>8.184882549500117e-08</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>25.25864134497554</v>
+        <v>54.56778688501706</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[3.213176736318445, 47.30410595363264]</t>
+          <t>[35.5573002327711, 73.57827353726303]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.02567213375421051</v>
+        <v>6.587111127664969e-07</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02567213375421051</v>
+        <v>6.587111127664969e-07</v>
       </c>
       <c r="P5" t="n">
-        <v>2.836553126664658</v>
+        <v>2.949763672739966</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.7170266154755027, 3.9560796378538137]</t>
+          <t>[2.547237286694427, 3.352290058785505]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>6.520061884174311e-06</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>6.520061884174311e-06</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>45.88750921284425</v>
+        <v>61.78556873359812</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[33.88190594256757, 57.89311248312093]</t>
+          <t>[50.25111623545281, 73.32002123174343]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9.509770748650226e-10</v>
+        <v>4.574118861455645e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>9.509770748650226e-10</v>
+        <v>4.574118861455645e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>12.43559559559565</v>
+        <v>11.98468468468473</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.396296296296335</v>
+        <v>10.53747747747752</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.47489489489497</v>
+        <v>13.43189189189195</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.6700000000001</v>
+        <v>22.59000000000009</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.105053174410564e-06</v>
+        <v>0.04878363844781664</v>
       </c>
       <c r="I6" t="n">
-        <v>1.105053174410564e-06</v>
+        <v>0.04878363844781664</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>48.14431714582567</v>
+        <v>24.33921216036576</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[28.668044560201537, 67.6205897314498]</t>
+          <t>[1.1996255234191224, 47.47879879731239]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>9.873024801487773e-06</v>
+        <v>0.03968565344860653</v>
       </c>
       <c r="O6" t="n">
-        <v>9.873024801487773e-06</v>
+        <v>0.03968565344860653</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.930895248394081</v>
+        <v>3.100711067507043</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.3837374326953125, -2.4780530640928493]</t>
+          <t>[1.8050792624229643, 4.396342872591122]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.67003893967177e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.67003893967177e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>55.70584497191511</v>
+        <v>55.20814565056304</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[44.31340157045187, 67.09828837337835]</t>
+          <t>[41.2196352680499, 69.19665603307618]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.373302051722931e-13</v>
+        <v>4.089686367336753e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>8.373302051722931e-13</v>
+        <v>4.089686367336753e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>10.57479479479484</v>
+        <v>11.44198198198203</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.940920920920959</v>
+        <v>6.783783783783812</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.20866866866873</v>
+        <v>16.10018018018025</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.6700000000001</v>
+        <v>22.59000000000009</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>4.941746584907758e-05</v>
+        <v>0.002559470108191464</v>
       </c>
       <c r="I7" t="n">
-        <v>4.941746584907758e-05</v>
+        <v>0.002559470108191464</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>47.60529630681118</v>
+        <v>30.43712127255009</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[23.66247053736619, 71.54812207625618]</t>
+          <t>[8.283122960685297, 52.59111958441489]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0002299377496450816</v>
+        <v>0.008177569453091449</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0002299377496450816</v>
+        <v>0.008177569453091449</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.918316298830158</v>
+        <v>-2.779947853627004</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.4843690292066967, -2.352263568453619]</t>
+          <t>[-3.6101585248459287, -1.9497371824080787]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.576516694967722e-13</v>
+        <v>2.443168267696194e-08</v>
       </c>
       <c r="S7" t="n">
-        <v>1.576516694967722e-13</v>
+        <v>2.443168267696194e-08</v>
       </c>
       <c r="T7" t="n">
-        <v>71.83488193215815</v>
+        <v>73.10977498730784</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[57.96375815287311, 85.7060057114432]</t>
+          <t>[61.20740664888566, 85.01214332573002]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.365574320288943e-13</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W7" t="n">
-        <v>1.365574320288943e-13</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X7" t="n">
-        <v>10.52940940940946</v>
+        <v>9.994774774774815</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.487067067067107</v>
+        <v>7.009909909909934</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.57175175175181</v>
+        <v>12.97963963963969</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.40000000000006</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0002149830680376885</v>
+        <v>3.303033990764703e-08</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002149830680376885</v>
+        <v>3.303033990764703e-08</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>41.42268559972982</v>
+        <v>59.90804197398661</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[16.22918775659521, 66.61618344286443]</t>
+          <t>[36.93114573024512, 82.88493821772809]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.001835141170099419</v>
+        <v>3.965709153508357e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001835141170099419</v>
+        <v>3.965709153508357e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.339684618889695</v>
+        <v>-2.264210921506157</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.8805794501383883, -1.798789787641002]</t>
+          <t>[-2.6541583579877734, -1.8742634850245405]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.245093083137363e-11</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="S8" t="n">
-        <v>3.245093083137363e-11</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="T8" t="n">
-        <v>52.76279203888553</v>
+        <v>60.9212980825643</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[39.861636419272585, 65.66394765849847]</t>
+          <t>[49.20605016954881, 72.63654599557978]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.560609419470893e-10</v>
+        <v>1.194599974496668e-13</v>
       </c>
       <c r="W8" t="n">
-        <v>1.560609419470893e-10</v>
+        <v>1.194599974496668e-13</v>
       </c>
       <c r="X8" t="n">
-        <v>8.341141141141163</v>
+        <v>8.104504504504533</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.412812812812829</v>
+        <v>6.708728728728751</v>
       </c>
       <c r="Z8" t="n">
-        <v>10.2694694694695</v>
+        <v>9.500280280280315</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.40000000000006</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0004421843405297832</v>
+        <v>0.0002491590462535553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0004421843405297832</v>
+        <v>0.0002491590462535553</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>42.78079621540061</v>
+        <v>37.74968382194106</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[17.305260650760786, 68.25633178004044]</t>
+          <t>[17.851804457341444, 57.64756318654068]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.001496856986275219</v>
+        <v>0.0004050260849641774</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001496856986275219</v>
+        <v>0.0004050260849641774</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.94973718240808</v>
+        <v>-1.723316090257464</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.6164215092960035, -1.2830528555201557]</t>
+          <t>[-2.377421467581465, -1.0692107129334634]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.54171836805628e-07</v>
+        <v>3.295725077290257e-06</v>
       </c>
       <c r="S9" t="n">
-        <v>4.54171836805628e-07</v>
+        <v>3.295725077290257e-06</v>
       </c>
       <c r="T9" t="n">
-        <v>63.90988690572058</v>
+        <v>55.86794443740714</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[50.08238163882613, 77.73739217261505]</t>
+          <t>[44.20930035743382, 67.52658851738046]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.663824881845358e-12</v>
+        <v>1.56097357262297e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>4.663824881845358e-12</v>
+        <v>1.56097357262297e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>6.95095095095097</v>
+        <v>6.168428428428449</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.574174174174187</v>
+        <v>3.82712712712714</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.327727727727753</v>
+        <v>8.509729729729758</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.40000000000006</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.388155178056905e-07</v>
+        <v>8.533353212603068e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>2.388155178056905e-07</v>
+        <v>8.533353212603068e-06</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>55.56810234043762</v>
+        <v>42.37777970367018</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[35.773445839414975, 75.36275884146026]</t>
+          <t>[22.75963739271066, 61.9959220146297]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.015787098657128e-06</v>
+        <v>7.700540365496167e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.015787098657128e-06</v>
+        <v>7.700540365496167e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.446579199851156</v>
+        <v>-1.899421384152387</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.8491055858966945, -1.0440528138056173]</t>
+          <t>[-2.390000417145388, -1.4088423511593868]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.523883490037406e-09</v>
+        <v>6.789782069915873e-10</v>
       </c>
       <c r="S10" t="n">
-        <v>4.523883490037406e-09</v>
+        <v>6.789782069915873e-10</v>
       </c>
       <c r="T10" t="n">
-        <v>54.22211003169767</v>
+        <v>56.63207865462988</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[42.53544625208073, 65.90877381131462]</t>
+          <t>[46.00671127868618, 67.25744603057358]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.158451361035986e-12</v>
+        <v>5.395683899678261e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>4.158451361035986e-12</v>
+        <v>5.395683899678261e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>5.157157157157169</v>
+        <v>6.798778778778802</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.722122122122132</v>
+        <v>5.04280280280282</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.592192192192206</v>
+        <v>8.554754754754784</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.40000000000006</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0001064623391161534</v>
+        <v>2.998162269973736e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001064623391161534</v>
+        <v>2.998162269973736e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>42.6413822011122</v>
+        <v>45.59205969858438</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[17.3132498047478, 67.9695145974766]</t>
+          <t>[21.15256896579073, 70.03155043137802]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.001460026505301082</v>
+        <v>0.0004918452198978684</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001460026505301082</v>
+        <v>0.0004918452198978684</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.8553685703467702</v>
+        <v>-0.8427896207828471</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.396263401595463, -0.3144737390980774]</t>
+          <t>[-1.3585265529036938, -0.32705268866200043]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.002628158646519996</v>
+        <v>0.00194445785857722</v>
       </c>
       <c r="S11" t="n">
-        <v>0.002628158646519996</v>
+        <v>0.00194445785857722</v>
       </c>
       <c r="T11" t="n">
-        <v>66.0816476454393</v>
+        <v>47.63043973005902</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[53.231340962836605, 78.931954328042]</t>
+          <t>[34.94219949503366, 60.318679965084385]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.711963903971991e-13</v>
+        <v>1.513527525531799e-09</v>
       </c>
       <c r="W11" t="n">
-        <v>1.711963903971991e-13</v>
+        <v>1.513527525531799e-09</v>
       </c>
       <c r="X11" t="n">
-        <v>3.049449449449458</v>
+        <v>3.016676676676685</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.121121121121126</v>
+        <v>1.170650650650653</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.97777777777779</v>
+        <v>4.862702702702716</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.40000000000006</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02778467704311638</v>
+        <v>0.0001968279550348395</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02778467704311638</v>
+        <v>0.0001968279550348395</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>29.37010759236633</v>
+        <v>46.00235444253158</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[0.5769212010279716, 58.1632939837047]</t>
+          <t>[19.19360093083816, 72.811107954225]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.04576606058107879</v>
+        <v>0.001207410136319087</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04576606058107879</v>
+        <v>0.001207410136319087</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.6163685286322318</v>
+        <v>-0.3522105877898465</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.8302371615508113, 0.5975001042863477]</t>
+          <t>[-0.9811580659860013, 0.27673689040630833]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.3119138802848884</v>
+        <v>0.2653409420933999</v>
       </c>
       <c r="S12" t="n">
-        <v>0.3119138802848884</v>
+        <v>0.2653409420933999</v>
       </c>
       <c r="T12" t="n">
-        <v>61.57403852406027</v>
+        <v>58.165722784831</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[46.27129938989501, 76.87677765822554]</t>
+          <t>[43.38725598933581, 72.9441895803262]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.432272161456694e-10</v>
+        <v>4.40045111460563e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>2.432272161456694e-10</v>
+        <v>4.40045111460563e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>2.197397397397403</v>
+        <v>1.260700700700703</v>
       </c>
       <c r="Y12" t="n">
-        <v>-2.13013013013014</v>
+        <v>-0.9905505505505565</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.524924924924945</v>
+        <v>3.511951951951962</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.40000000000006</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>7.227838415557741e-07</v>
+        <v>2.829724318864635e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>7.227838415557741e-07</v>
+        <v>2.829724318864635e-05</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>57.48612987904401</v>
+        <v>47.28168604555849</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[36.76558227181985, 78.20667748626816]</t>
+          <t>[26.201221677653052, 68.36215041346392]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.27201910005148e-06</v>
+        <v>4.498098025496056e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27201910005148e-06</v>
+        <v>4.498098025496056e-05</v>
       </c>
       <c r="P13" t="n">
         <v>-0.02515789912784605</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.47171060864711567, 0.42139481039142357]</t>
+          <t>[-0.6289474781961548, 0.5786316799404627]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.9101621901017092</v>
+        <v>0.9334914917579682</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9101621901017092</v>
+        <v>0.9334914917579682</v>
       </c>
       <c r="T13" t="n">
-        <v>58.53894139073375</v>
+        <v>62.87521010415038</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[45.08931043801286, 71.98857234345465]</t>
+          <t>[49.45584393613886, 76.29457627216189]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.717204239388593e-11</v>
+        <v>3.094635658840161e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>2.717204239388593e-11</v>
+        <v>3.094635658840161e-12</v>
       </c>
       <c r="X13" t="n">
-        <v>0.08968968968969193</v>
+        <v>0.09005005005005273</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.502302302302303</v>
+        <v>-2.071151151151156</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.681681681681687</v>
+        <v>2.251251251251262</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.40000000000006</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00122907549834772</v>
+        <v>0.000249232900188967</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00122907549834772</v>
+        <v>0.000249232900188967</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>34.40912200390911</v>
+        <v>48.46996001426798</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[11.950774786756398, 56.867469221061825]</t>
+          <t>[23.040691521273985, 73.89922850726198]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.003466696036198869</v>
+        <v>0.000383419632943971</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003466696036198869</v>
+        <v>0.000383419632943971</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3836579616996545</v>
+        <v>-0.07547369738353815</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.35850006257180755, 1.1258159859711165]</t>
+          <t>[-0.7421580242714629, 0.5912106295043866]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.3033496481734694</v>
+        <v>0.8206700450349884</v>
       </c>
       <c r="S14" t="n">
-        <v>0.3033496481734694</v>
+        <v>0.8206700450349884</v>
       </c>
       <c r="T14" t="n">
-        <v>50.94089696222982</v>
+        <v>60.53882007166455</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[38.340159691382, 63.541634233077644]</t>
+          <t>[44.66939100976168, 76.40824913356741]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.140927435334561e-10</v>
+        <v>9.998144534506537e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>2.140927435334561e-10</v>
+        <v>9.998144534506537e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>21.03223223223229</v>
+        <v>0.2701501501501511</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.38638638638644</v>
+        <v>-2.116176176176186</v>
       </c>
       <c r="Z14" t="n">
-        <v>23.67807807807814</v>
+        <v>2.656476476476488</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.40000000000006</v>
+        <v>22.49000000000008</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001980953927667617</v>
+        <v>0.007080635525005707</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001980953927667617</v>
+        <v>0.007080635525005707</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>41.34209023999068</v>
+        <v>30.6489106758653</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[11.490276208213189, 71.19390427176816]</t>
+          <t>[5.254261784533174, 56.04355956719742]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.007715591014906931</v>
+        <v>0.0191123096973782</v>
       </c>
       <c r="O15" t="n">
-        <v>0.007715591014906931</v>
+        <v>0.0191123096973782</v>
       </c>
       <c r="P15" t="n">
-        <v>0.735868549489501</v>
+        <v>0.8239211964369622</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.09434212172942225, 1.3773949772495797]</t>
+          <t>[0.10692107129334616, 1.5409213215805782]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.02551315942647125</v>
+        <v>0.02526381623258822</v>
       </c>
       <c r="S15" t="n">
-        <v>0.02551315942647125</v>
+        <v>0.02526381623258822</v>
       </c>
       <c r="T15" t="n">
-        <v>63.44346820282128</v>
+        <v>47.25976154561998</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[47.97640322320642, 78.91053318243614]</t>
+          <t>[34.267890966749306, 60.251632124490655]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.439295349570102e-10</v>
+        <v>3.349113653072777e-09</v>
       </c>
       <c r="W15" t="n">
-        <v>1.439295349570102e-10</v>
+        <v>3.349113653072777e-09</v>
       </c>
       <c r="X15" t="n">
-        <v>19.77657657657663</v>
+        <v>19.54086086086093</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.48948948948954</v>
+        <v>16.9744344344345</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.06366366366372</v>
+        <v>22.10728728728736</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_8_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_8_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.59000000000009</v>
+        <v>22.41000000000006</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001016077164499585</v>
+        <v>0.002888598927588859</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001016077164499585</v>
+        <v>0.002888598927588859</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>46.14901658985401</v>
+        <v>39.77339897627068</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[24.473175935913744, 67.82485724379427]</t>
+          <t>[14.267924303888634, 65.27887364865272]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>9.406996846106352e-05</v>
+        <v>0.002975549455590087</v>
       </c>
       <c r="O2" t="n">
-        <v>9.406996846106352e-05</v>
+        <v>0.002975549455590087</v>
       </c>
       <c r="P2" t="n">
-        <v>1.566079220708426</v>
+        <v>1.452868674633117</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0000264903318863, 2.1321319510849657]</t>
+          <t>[0.6603948521059619, 2.245342497160272]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.340654562920207e-06</v>
+        <v>0.000598308194783792</v>
       </c>
       <c r="S2" t="n">
-        <v>1.340654562920207e-06</v>
+        <v>0.000598308194783792</v>
       </c>
       <c r="T2" t="n">
-        <v>69.70494689466349</v>
+        <v>59.70131093125261</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[56.27953784620315, 83.13035594312385]</t>
+          <t>[44.646116307873925, 74.75650555463129]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.256772463875677e-13</v>
+        <v>3.601552389653762e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>1.256772463875677e-13</v>
+        <v>3.601552389653762e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>16.95945945945953</v>
+        <v>17.22810810810816</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.92432432432438</v>
+        <v>14.40162162162166</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.99459459459467</v>
+        <v>20.05459459459465</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.59000000000009</v>
+        <v>22.41000000000006</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>9.147813261844995e-05</v>
+        <v>0.0001057321868208616</v>
       </c>
       <c r="I3" t="n">
-        <v>9.147813261844995e-05</v>
+        <v>0.0001057321868208616</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>40.4394083358601</v>
+        <v>34.24546068607874</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[16.933511207301052, 63.94530546441915]</t>
+          <t>[15.376194874342275, 53.11472649781521]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.001176155039902538</v>
+        <v>0.0006690287209851764</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001176155039902538</v>
+        <v>0.0006690287209851764</v>
       </c>
       <c r="P3" t="n">
-        <v>2.232763547596349</v>
+        <v>1.943447707626119</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.6918687163476553, 2.7736583788450426]</t>
+          <t>[1.3522370781217337, 2.5346583371305034]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.208766420290885e-10</v>
+        <v>3.727033481837339e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>1.208766420290885e-10</v>
+        <v>3.727033481837339e-08</v>
       </c>
       <c r="T3" t="n">
-        <v>51.6815892418312</v>
+        <v>47.08079583519922</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[39.673312789164186, 63.68986569449821]</t>
+          <t>[36.969695587111985, 57.19189608328645]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.747357979477783e-11</v>
+        <v>3.733013897999626e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>3.747357979477783e-11</v>
+        <v>3.733013897999626e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>14.56252252252258</v>
+        <v>15.47837837837842</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.61783783783789</v>
+        <v>13.36972972972977</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.50720720720728</v>
+        <v>17.58702702702708</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.59000000000009</v>
+        <v>22.41000000000006</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004636842343929692</v>
+        <v>2.685255535261888e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004636842343929692</v>
+        <v>2.685255535261888e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>35.86390370732018</v>
+        <v>50.60482090918684</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[7.833847777542395, 63.89395963709796]</t>
+          <t>[26.54953414303806, 74.66010767533562]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.01331538853059477</v>
+        <v>0.0001106840043885171</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01331538853059477</v>
+        <v>0.0001106840043885171</v>
       </c>
       <c r="P4" t="n">
-        <v>2.39628989192735</v>
+        <v>2.52207938756658</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.7170266154755032, 3.075553168379197]</t>
+          <t>[2.0440793041375027, 3.000079470995658]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.113957423143802e-09</v>
+        <v>7.482903185973555e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>7.113957423143802e-09</v>
+        <v>7.482903185973555e-14</v>
       </c>
       <c r="T4" t="n">
-        <v>57.45488282340347</v>
+        <v>67.42317486476092</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[42.65626385658999, 72.25350179021694]</t>
+          <t>[54.93193951977405, 79.9144102097478]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.316602796374582e-10</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>6.316602796374582e-10</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>13.97459459459465</v>
+        <v>13.41459459459463</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.53243243243248</v>
+        <v>11.70972972972976</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.41675675675682</v>
+        <v>15.1194594594595</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.59000000000009</v>
+        <v>22.41000000000006</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>8.184882549500117e-08</v>
+        <v>2.416746974998052e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>8.184882549500117e-08</v>
+        <v>2.416746974998052e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>54.56778688501706</v>
+        <v>43.83517772455967</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[35.5573002327711, 73.57827353726303]</t>
+          <t>[21.935474516490913, 65.73488093262843]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>6.587111127664969e-07</v>
+        <v>0.0002114625879308107</v>
       </c>
       <c r="O5" t="n">
-        <v>6.587111127664969e-07</v>
+        <v>0.0002114625879308107</v>
       </c>
       <c r="P5" t="n">
-        <v>2.949763672739966</v>
+        <v>2.811395227536812</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.547237286694427, 3.352290058785505]</t>
+          <t>[2.232763547596349, 3.3900269074772753]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.019850870420669e-12</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.019850870420669e-12</v>
       </c>
       <c r="T5" t="n">
-        <v>61.78556873359812</v>
+        <v>71.59009152931046</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[50.25111623545281, 73.32002123174343]</t>
+          <t>[59.27106378086036, 83.90911927776055]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.574118861455645e-14</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="W5" t="n">
-        <v>4.574118861455645e-14</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="X5" t="n">
-        <v>11.98468468468473</v>
+        <v>12.38270270270274</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.53747747747752</v>
+        <v>10.31891891891894</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.43189189189195</v>
+        <v>14.44648648648653</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.59000000000009</v>
+        <v>22.41000000000006</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04878363844781664</v>
+        <v>0.0002909695697337344</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04878363844781664</v>
+        <v>0.0002909695697337344</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>24.33921216036576</v>
+        <v>41.63104542662786</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1.1996255234191224, 47.47879879731239]</t>
+          <t>[17.659385001583317, 65.6027058516724]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.03968565344860653</v>
+        <v>0.001068217687786532</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03968565344860653</v>
+        <v>0.001068217687786532</v>
       </c>
       <c r="P6" t="n">
-        <v>3.100711067507043</v>
+        <v>-2.943474197958004</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.8050792624229643, 4.396342872591122]</t>
+          <t>[-3.6353164239737734, -2.2516319719422353]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.67003893967177e-05</v>
+        <v>5.195932573087703e-11</v>
       </c>
       <c r="S6" t="n">
-        <v>1.67003893967177e-05</v>
+        <v>5.195932573087703e-11</v>
       </c>
       <c r="T6" t="n">
-        <v>55.20814565056304</v>
+        <v>64.8205519737654</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[41.2196352680499, 69.19665603307618]</t>
+          <t>[51.11164152621404, 78.52946242131677]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.089686367336753e-10</v>
+        <v>2.347233518662506e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>4.089686367336753e-10</v>
+        <v>2.347233518662506e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>11.44198198198203</v>
+        <v>10.49837837837841</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.783783783783812</v>
+        <v>8.030810810810838</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.10018018018025</v>
+        <v>12.96594594594598</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.59000000000009</v>
+        <v>22.41000000000006</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002559470108191464</v>
+        <v>2.66499486922811e-08</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002559470108191464</v>
+        <v>2.66499486922811e-08</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>30.43712127255009</v>
+        <v>62.861530423298</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[8.283122960685297, 52.59111958441489]</t>
+          <t>[39.816006976218056, 85.90705387037795]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.008177569453091449</v>
+        <v>1.749230982062144e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>0.008177569453091449</v>
+        <v>1.749230982062144e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.779947853627004</v>
+        <v>-2.578684660604235</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.6101585248459287, -1.9497371824080787]</t>
+          <t>[-2.9812110466497734, -2.1761582745586963]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.443168267696194e-08</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S7" t="n">
-        <v>2.443168267696194e-08</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T7" t="n">
-        <v>73.10977498730784</v>
+        <v>62.25858298893188</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[61.20740664888566, 85.01214332573002]</t>
+          <t>[49.85168957154682, 74.66547640631694]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>3.723688024592775e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>3.723688024592775e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>9.994774774774815</v>
+        <v>9.197297297297325</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.009909909909934</v>
+        <v>7.761621621621647</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.97963963963969</v>
+        <v>10.632972972973</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.49000000000008</v>
+        <v>22.37000000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.303033990764703e-08</v>
+        <v>9.13364574051112e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>3.303033990764703e-08</v>
+        <v>9.13364574051112e-06</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>59.90804197398661</v>
+        <v>51.01745564192859</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[36.93114573024512, 82.88493821772809]</t>
+          <t>[24.963661356314844, 77.07124992754234]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.965709153508357e-06</v>
+        <v>0.0002775989244008237</v>
       </c>
       <c r="O8" t="n">
-        <v>3.965709153508357e-06</v>
+        <v>0.0002775989244008237</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.264210921506157</v>
+        <v>-2.44031621540108</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.6541583579877734, -1.8742634850245405]</t>
+          <t>[-2.918316298830158, -1.9623161319720026]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>2.158273559871304e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>2.158273559871304e-13</v>
       </c>
       <c r="T8" t="n">
-        <v>60.9212980825643</v>
+        <v>58.593500679328</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.20605016954881, 72.63654599557978]</t>
+          <t>[45.45679644120552, 71.73020491745046]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.194599974496668e-13</v>
+        <v>1.337041588556076e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>1.194599974496668e-13</v>
+        <v>1.337041588556076e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>8.104504504504533</v>
+        <v>8.68824824824827</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.708728728728751</v>
+        <v>6.986426426426443</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.500280280280315</v>
+        <v>10.3900700700701</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.49000000000008</v>
+        <v>22.37000000000006</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0002491590462535553</v>
+        <v>0.003630674214288532</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002491590462535553</v>
+        <v>0.003630674214288532</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>37.74968382194106</v>
+        <v>39.99283163304064</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[17.851804457341444, 57.64756318654068]</t>
+          <t>[8.954770993763901, 71.03089227231737]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0004050260849641774</v>
+        <v>0.01271942016459549</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0004050260849641774</v>
+        <v>0.01271942016459549</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.723316090257464</v>
+        <v>-2.213895123250465</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.377421467581465, -1.0692107129334634]</t>
+          <t>[-2.905737349266235, -1.522052897234695]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.295725077290257e-06</v>
+        <v>6.803304519742426e-08</v>
       </c>
       <c r="S9" t="n">
-        <v>3.295725077290257e-06</v>
+        <v>6.803304519742426e-08</v>
       </c>
       <c r="T9" t="n">
-        <v>55.86794443740714</v>
+        <v>76.66021761318159</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[44.20930035743382, 67.52658851738046]</t>
+          <t>[60.96857630114155, 92.35185892522162]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.56097357262297e-12</v>
+        <v>8.604228440844963e-13</v>
       </c>
       <c r="W9" t="n">
-        <v>1.56097357262297e-12</v>
+        <v>8.604228440844963e-13</v>
       </c>
       <c r="X9" t="n">
-        <v>6.168428428428449</v>
+        <v>7.882122122122142</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.82712712712714</v>
+        <v>5.418958958958974</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.509729729729758</v>
+        <v>10.34528528528531</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.49000000000008</v>
+        <v>22.37000000000006</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>8.533353212603068e-06</v>
+        <v>0.005030821835972477</v>
       </c>
       <c r="I10" t="n">
-        <v>8.533353212603068e-06</v>
+        <v>0.005030821835972477</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>42.37777970367018</v>
+        <v>32.28241685342596</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[22.75963739271066, 61.9959220146297]</t>
+          <t>[10.438214982537929, 54.126618724313985]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>7.700540365496167e-05</v>
+        <v>0.004679125221692892</v>
       </c>
       <c r="O10" t="n">
-        <v>7.700540365496167e-05</v>
+        <v>0.004679125221692892</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.899421384152387</v>
+        <v>-1.622684493746079</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.390000417145388, -1.4088423511593868]</t>
+          <t>[-2.5409478119124653, -0.704421175579693]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>6.789782069915873e-10</v>
+        <v>0.0008912884868017557</v>
       </c>
       <c r="S10" t="n">
-        <v>6.789782069915873e-10</v>
+        <v>0.0008912884868017557</v>
       </c>
       <c r="T10" t="n">
-        <v>56.63207865462988</v>
+        <v>67.16610658079384</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[46.00671127868618, 67.25744603057358]</t>
+          <t>[54.25288520795535, 80.07932795363232]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.395683899678261e-14</v>
+        <v>1.187938636348917e-13</v>
       </c>
       <c r="W10" t="n">
-        <v>5.395683899678261e-14</v>
+        <v>1.187938636348917e-13</v>
       </c>
       <c r="X10" t="n">
-        <v>6.798778778778802</v>
+        <v>5.777237237237252</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.04280280280282</v>
+        <v>2.507947947947953</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.554754754754784</v>
+        <v>9.04652652652655</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.49000000000008</v>
+        <v>22.37000000000006</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.998162269973736e-05</v>
+        <v>0.008729154568696496</v>
       </c>
       <c r="I11" t="n">
-        <v>2.998162269973736e-05</v>
+        <v>0.008729154568696496</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>45.59205969858438</v>
+        <v>32.24216032907081</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[21.15256896579073, 70.03155043137802]</t>
+          <t>[4.326319851630011, 60.158000806511616]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0004918452198978684</v>
+        <v>0.02456837944681856</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0004918452198978684</v>
+        <v>0.02456837944681856</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.8427896207828471</v>
+        <v>-0.7170001251436169</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.3585265529036938, -0.32705268866200043]</t>
+          <t>[-1.459158149415079, 0.025157899127845162]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.00194445785857722</v>
+        <v>0.05793703447473475</v>
       </c>
       <c r="S11" t="n">
-        <v>0.00194445785857722</v>
+        <v>0.05793703447473475</v>
       </c>
       <c r="T11" t="n">
-        <v>47.63043973005902</v>
+        <v>64.86875005489748</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[34.94219949503366, 60.318679965084385]</t>
+          <t>[50.534085798865746, 79.2034143109292]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.513527525531799e-09</v>
+        <v>8.740563828268932e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>1.513527525531799e-09</v>
+        <v>8.740563828268932e-12</v>
       </c>
       <c r="X11" t="n">
-        <v>3.016676676676685</v>
+        <v>2.552732732732739</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.170650650650653</v>
+        <v>-0.08956956956956796</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.862702702702716</v>
+        <v>5.195035035035046</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.49000000000008</v>
+        <v>22.37000000000006</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0001968279550348395</v>
+        <v>2.950057148565222e-07</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001968279550348395</v>
+        <v>2.950057148565222e-07</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>46.00235444253158</v>
+        <v>56.61011053147978</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[19.19360093083816, 72.811107954225]</t>
+          <t>[32.39320991291579, 80.82701115004376]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.001207410136319087</v>
+        <v>2.413963886338522e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001207410136319087</v>
+        <v>2.413963886338522e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.3522105877898465</v>
+        <v>-0.9056843686024632</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.9811580659860013, 0.27673689040630833]</t>
+          <t>[-1.3082107546480026, -0.5031579825569237]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.2653409420933999</v>
+        <v>4.294577757657514e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2653409420933999</v>
+        <v>4.294577757657514e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>58.165722784831</v>
+        <v>49.45839247783049</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[43.38725598933581, 72.9441895803262]</t>
+          <t>[37.0862756065032, 61.83050934915777]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.40045111460563e-10</v>
+        <v>2.900863993460234e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>4.40045111460563e-10</v>
+        <v>2.900863993460234e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>1.260700700700703</v>
+        <v>3.224504504504512</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.9905505505505565</v>
+        <v>1.791391391391394</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.511951951951962</v>
+        <v>4.657617617617631</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.49000000000008</v>
+        <v>22.37000000000006</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.829724318864635e-05</v>
+        <v>3.070442288088948e-06</v>
       </c>
       <c r="I13" t="n">
-        <v>2.829724318864635e-05</v>
+        <v>3.070442288088948e-06</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>47.28168604555849</v>
+        <v>51.04698745063164</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[26.201221677653052, 68.36215041346392]</t>
+          <t>[30.38384750635724, 71.71012739490604]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.498098025496056e-05</v>
+        <v>9.973418675812695e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>4.498098025496056e-05</v>
+        <v>9.973418675812695e-06</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02515789912784605</v>
+        <v>0.08176317216550011</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.6289474781961548, 0.5786316799404627]</t>
+          <t>[-0.4339737599553466, 0.5975001042863468]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.9334914917579682</v>
+        <v>0.7509697810859486</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9334914917579682</v>
+        <v>0.7509697810859486</v>
       </c>
       <c r="T13" t="n">
-        <v>62.87521010415038</v>
+        <v>61.49482584491918</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.45584393613886, 76.29457627216189]</t>
+          <t>[48.69797850160082, 74.29167318823752]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.094635658840161e-12</v>
+        <v>1.431965657161527e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>3.094635658840161e-12</v>
+        <v>1.431965657161527e-12</v>
       </c>
       <c r="X13" t="n">
-        <v>0.09005005005005273</v>
+        <v>22.07889889889896</v>
       </c>
       <c r="Y13" t="n">
-        <v>-2.071151151151156</v>
+        <v>20.24272272272277</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.251251251251262</v>
+        <v>23.91507507507514</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.49000000000008</v>
+        <v>22.37000000000006</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.000249232900188967</v>
+        <v>1.060661448204492e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.000249232900188967</v>
+        <v>1.060661448204492e-05</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>48.46996001426798</v>
+        <v>47.54466792383738</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[23.040691521273985, 73.89922850726198]</t>
+          <t>[26.59687001877191, 68.49246582890285]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.000383419632943971</v>
+        <v>3.775604704969737e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>0.000383419632943971</v>
+        <v>3.775604704969737e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.07547369738353815</v>
+        <v>0.2327105669325773</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.7421580242714629, 0.5912106295043866]</t>
+          <t>[-0.2956053147521933, 0.7610264486173479]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.8206700450349884</v>
+        <v>0.3797074144120254</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8206700450349884</v>
+        <v>0.3797074144120254</v>
       </c>
       <c r="T14" t="n">
-        <v>60.53882007166455</v>
+        <v>50.52193812913237</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[44.66939100976168, 76.40824913356741]</t>
+          <t>[37.843210185397396, 63.20066607286735]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9.998144534506537e-10</v>
+        <v>3.162108352938731e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>9.998144534506537e-10</v>
+        <v>3.162108352938731e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>0.2701501501501511</v>
+        <v>21.54148148148154</v>
       </c>
       <c r="Y14" t="n">
-        <v>-2.116176176176186</v>
+        <v>19.66052052052057</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.656476476476488</v>
+        <v>23.42244244244251</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.49000000000008</v>
+        <v>22.37000000000006</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.007080635525005707</v>
+        <v>0.0008129461967490981</v>
       </c>
       <c r="I15" t="n">
-        <v>0.007080635525005707</v>
+        <v>0.0008129461967490981</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>30.6489106758653</v>
+        <v>39.6396132175491</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[5.254261784533174, 56.04355956719742]</t>
+          <t>[13.450452285435901, 65.82877414966231]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.0191123096973782</v>
+        <v>0.003843074594779949</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0191123096973782</v>
+        <v>0.003843074594779949</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8239211964369622</v>
+        <v>0.6100790538502707</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.10692107129334616, 1.5409213215805782]</t>
+          <t>[-0.03144737390980712, 1.2516054816103486]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.02526381623258822</v>
+        <v>0.06181301133914641</v>
       </c>
       <c r="S15" t="n">
-        <v>0.02526381623258822</v>
+        <v>0.06181301133914641</v>
       </c>
       <c r="T15" t="n">
-        <v>47.25976154561998</v>
+        <v>62.39094224776333</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[34.267890966749306, 60.251632124490655]</t>
+          <t>[48.5663055203199, 76.21557897520677]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>3.349113653072777e-09</v>
+        <v>9.469758310842735e-12</v>
       </c>
       <c r="W15" t="n">
-        <v>3.349113653072777e-09</v>
+        <v>9.469758310842735e-12</v>
       </c>
       <c r="X15" t="n">
-        <v>19.54086086086093</v>
+        <v>20.19793793793799</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.9744344344345</v>
+        <v>17.91391391391396</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.10728728728736</v>
+        <v>22.48196196196202</v>
       </c>
     </row>
   </sheetData>
